--- a/data/trans_orig/P57B2_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P57B2_2023-Provincia-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>40740</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>28027</v>
+        <v>27978</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>57519</v>
+        <v>57024</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1277739086510441</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.08790319942127757</v>
+        <v>0.08774721146235141</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1803979057644387</v>
+        <v>0.1788454069874708</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>17</v>
@@ -762,19 +762,19 @@
         <v>11688</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>7055</v>
+        <v>6737</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>20205</v>
+        <v>18664</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03698084877417108</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02232243802465783</v>
+        <v>0.02131421503699801</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06392766822356356</v>
+        <v>0.05905279792696848</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>51</v>
@@ -783,19 +783,19 @@
         <v>52428</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>38831</v>
+        <v>38056</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>71938</v>
+        <v>70874</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.08257648365549096</v>
+        <v>0.08257648365549097</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.06116089510715798</v>
+        <v>0.05993913790966945</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1133050047473536</v>
+        <v>0.1116285271780702</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>243035</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>224799</v>
+        <v>225597</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>257794</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.7622358987995004</v>
+        <v>0.7622358987995006</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7050404306715269</v>
+        <v>0.7075431976510508</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.808524972905876</v>
+        <v>0.8085237848552573</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>427</v>
@@ -833,19 +833,19 @@
         <v>253719</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>240725</v>
+        <v>241044</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>264630</v>
+        <v>264258</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8027544099982276</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7616405849577617</v>
+        <v>0.7626497929812343</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8372740604732964</v>
+        <v>0.8360965451690948</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>685</v>
@@ -854,19 +854,19 @@
         <v>496754</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>473474</v>
+        <v>472773</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>515338</v>
+        <v>514937</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.7824062991948553</v>
+        <v>0.7824062991948554</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7457389068648292</v>
+        <v>0.7446347840813922</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8116762455569858</v>
+        <v>0.8110450139389909</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>35070</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>25756</v>
+        <v>25431</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>46804</v>
+        <v>46913</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1099901925494554</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.08077822797191206</v>
+        <v>0.0797593299294329</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.146792813569943</v>
+        <v>0.1471355244614033</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>93</v>
@@ -904,19 +904,19 @@
         <v>50102</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>40695</v>
+        <v>40915</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>62135</v>
+        <v>61510</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.1585204085528987</v>
+        <v>0.1585204085528986</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1287575230650894</v>
+        <v>0.1294536877641173</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1965915263327253</v>
+        <v>0.1946152490630151</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>132</v>
@@ -925,19 +925,19 @@
         <v>85172</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>72192</v>
+        <v>70870</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>102562</v>
+        <v>101234</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1341488760524479</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.113705276063195</v>
+        <v>0.1116224638044037</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1615381357584234</v>
+        <v>0.1594477801329242</v>
       </c>
     </row>
     <row r="7">
@@ -970,7 +970,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>2969</v>
+        <v>3203</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.00174433267470266</v>
@@ -979,7 +979,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.009392644645620202</v>
+        <v>0.01013507058119268</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1</v>
@@ -991,7 +991,7 @@
         <v>0</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>3104</v>
+        <v>2927</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.0008683410972059129</v>
@@ -1000,7 +1000,7 @@
         <v>0</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.004888519065750078</v>
+        <v>0.004610199460907444</v>
       </c>
     </row>
     <row r="8">
@@ -1092,19 +1092,19 @@
         <v>343767</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>313624</v>
+        <v>317991</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>369068</v>
+        <v>371861</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.6478253045919313</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.5910211339315441</v>
+        <v>0.5992523951825843</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.6955059230120099</v>
+        <v>0.7007693726844044</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>382</v>
@@ -1113,19 +1113,19 @@
         <v>307410</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>285666</v>
+        <v>288085</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>328554</v>
+        <v>328050</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.5652011933838837</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.525223497012868</v>
+        <v>0.5296700725470661</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.6040757482049431</v>
+        <v>0.6031496168801256</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>626</v>
@@ -1134,19 +1134,19 @@
         <v>651177</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>618202</v>
+        <v>612585</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>688130</v>
+        <v>683813</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.606003923823488</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.5753169009649671</v>
+        <v>0.5700896108163414</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.6403933525234726</v>
+        <v>0.6363760796288368</v>
       </c>
     </row>
     <row r="10">
@@ -1163,19 +1163,19 @@
         <v>153847</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>129930</v>
+        <v>129616</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>181719</v>
+        <v>180451</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2899240585587319</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.244851354671353</v>
+        <v>0.2442605734026024</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3424482301162607</v>
+        <v>0.3400590734401745</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>276</v>
@@ -1184,19 +1184,19 @@
         <v>198749</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>175515</v>
+        <v>179377</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>217007</v>
+        <v>218128</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3654179221624515</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3227004667459119</v>
+        <v>0.3297999036155048</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3989876285542284</v>
+        <v>0.4010483506254293</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>389</v>
@@ -1205,19 +1205,19 @@
         <v>352596</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>321570</v>
+        <v>320875</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>387236</v>
+        <v>385902</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.328136362077521</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2992619645767931</v>
+        <v>0.2986152642069493</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3603729703147626</v>
+        <v>0.3591317736788175</v>
       </c>
     </row>
     <row r="11">
@@ -1234,19 +1234,19 @@
         <v>27537</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>17122</v>
+        <v>17466</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>42871</v>
+        <v>43156</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.05189415292945933</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.03226642843149435</v>
+        <v>0.03291540823456923</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.08078992863891821</v>
+        <v>0.08132701066705315</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>48</v>
@@ -1255,19 +1255,19 @@
         <v>31941</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>24322</v>
+        <v>24229</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>42129</v>
+        <v>41990</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.05872581535682692</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.04471852135732386</v>
+        <v>0.04454667201581192</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.07745833937877086</v>
+        <v>0.0772020833350337</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>69</v>
@@ -1276,19 +1276,19 @@
         <v>59478</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>45928</v>
+        <v>46326</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>76452</v>
+        <v>80127</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.05535209700267293</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.04274217697222303</v>
+        <v>0.04311266993735841</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.07114845146120918</v>
+        <v>0.07456806865635954</v>
       </c>
     </row>
     <row r="12">
@@ -1305,19 +1305,19 @@
         <v>5496</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1416</v>
+        <v>1434</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>13517</v>
+        <v>13436</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.01035648391987725</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.002668614162025012</v>
+        <v>0.002701520013220386</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.02547341927672503</v>
+        <v>0.0253192969766242</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>8</v>
@@ -1326,19 +1326,19 @@
         <v>5795</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>2641</v>
+        <v>2708</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>11584</v>
+        <v>11674</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.01065506909683784</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.004855664048078861</v>
+        <v>0.004979079367963784</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.02129834127994511</v>
+        <v>0.02146419787974949</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>12</v>
@@ -1347,19 +1347,19 @@
         <v>11291</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>5851</v>
+        <v>5540</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>21250</v>
+        <v>19267</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.01050761709631819</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.005445028364533318</v>
+        <v>0.005155815510260615</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.01977584029809729</v>
+        <v>0.01793043610112586</v>
       </c>
     </row>
     <row r="13">
@@ -1451,19 +1451,19 @@
         <v>194902</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>179961</v>
+        <v>177868</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>211651</v>
+        <v>208849</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6167912458868864</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5695097314048998</v>
+        <v>0.5628856943063448</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6697969285324779</v>
+        <v>0.6609303200968156</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>283</v>
@@ -1472,19 +1472,19 @@
         <v>200969</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>186251</v>
+        <v>186207</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>216289</v>
+        <v>217243</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5677059487718792</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5261303801541274</v>
+        <v>0.5260067784395029</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6109831037834426</v>
+        <v>0.6136787132594942</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>488</v>
@@ -1493,19 +1493,19 @@
         <v>395871</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>373114</v>
+        <v>373434</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>415795</v>
+        <v>418110</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5908563195721258</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5568906637111133</v>
+        <v>0.5573683015403194</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6205945116184899</v>
+        <v>0.6240491963680221</v>
       </c>
     </row>
     <row r="15">
@@ -1522,19 +1522,19 @@
         <v>64460</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>51680</v>
+        <v>52592</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>77601</v>
+        <v>77788</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2039929545612363</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1635487478738252</v>
+        <v>0.1664337857025094</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2455781507586782</v>
+        <v>0.2461685867270966</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>135</v>
@@ -1543,19 +1543,19 @@
         <v>88581</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>75984</v>
+        <v>76100</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>103550</v>
+        <v>103014</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.2502277535097605</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.2146419360001689</v>
+        <v>0.2149704178199791</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.2925110644971416</v>
+        <v>0.2909978257666517</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>218</v>
@@ -1564,19 +1564,19 @@
         <v>153041</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>135111</v>
+        <v>134243</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>172532</v>
+        <v>173953</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.228421778962528</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2016597135159892</v>
+        <v>0.2003636951818783</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2575123511422999</v>
+        <v>0.2596334938988767</v>
       </c>
     </row>
     <row r="16">
@@ -1593,19 +1593,19 @@
         <v>45691</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>35756</v>
+        <v>35627</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>58033</v>
+        <v>57555</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.144593554343036</v>
+        <v>0.1445935543430359</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1131555462906724</v>
+        <v>0.1127463474865446</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.183652753241897</v>
+        <v>0.1821385787738831</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>89</v>
@@ -1614,19 +1614,19 @@
         <v>51189</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>41110</v>
+        <v>41739</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>62159</v>
+        <v>62369</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1446020771309111</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1161300426660919</v>
+        <v>0.1179047516499909</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1755903899723548</v>
+        <v>0.1761828010343303</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>145</v>
@@ -1635,19 +1635,19 @@
         <v>96880</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>83550</v>
+        <v>81903</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>115866</v>
+        <v>114286</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1445980574812164</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1247028762937758</v>
+        <v>0.1222446075984419</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1729361104371805</v>
+        <v>0.1705767822513484</v>
       </c>
     </row>
     <row r="17">
@@ -1664,19 +1664,19 @@
         <v>10940</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>6479</v>
+        <v>6629</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>17691</v>
+        <v>16993</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.03462224520884129</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.02050492033045305</v>
+        <v>0.02097752704280386</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.05598391696635568</v>
+        <v>0.05377749064304988</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>25</v>
@@ -1685,19 +1685,19 @@
         <v>13262</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>8551</v>
+        <v>8720</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>19017</v>
+        <v>19969</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.03746422058744924</v>
+        <v>0.03746422058744925</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.02415593551341016</v>
+        <v>0.02463289454525869</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.05372078833978149</v>
+        <v>0.05640978924694185</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>41</v>
@@ -1706,19 +1706,19 @@
         <v>24203</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>17332</v>
+        <v>16996</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>32461</v>
+        <v>33068</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.03612384398412966</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.02586853282226531</v>
+        <v>0.02536699080337768</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.0484500726255085</v>
+        <v>0.04935615178261192</v>
       </c>
     </row>
     <row r="18">
@@ -1810,19 +1810,19 @@
         <v>235726</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>210301</v>
+        <v>212781</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>257440</v>
+        <v>258883</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.6554194460674697</v>
+        <v>0.6554194460674695</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.584727455682363</v>
+        <v>0.5916235918861887</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.7157954365588186</v>
+        <v>0.7198076281549866</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>299</v>
@@ -1831,19 +1831,19 @@
         <v>235281</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>215743</v>
+        <v>216232</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>253339</v>
+        <v>254626</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.5636569109526124</v>
+        <v>0.5636569109526123</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.5168523119444423</v>
+        <v>0.5180223848312112</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.6069183019513089</v>
+        <v>0.6100022108300549</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>463</v>
@@ -1852,19 +1852,19 @@
         <v>471006</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>440236</v>
+        <v>441628</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>500604</v>
+        <v>500064</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.6061276668111352</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.5665305465861602</v>
+        <v>0.5683221115889799</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.6442162821485408</v>
+        <v>0.6435214964738326</v>
       </c>
     </row>
     <row r="20">
@@ -1881,19 +1881,19 @@
         <v>94834</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>74625</v>
+        <v>74738</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>116679</v>
+        <v>115579</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.263679608129275</v>
+        <v>0.2636796081292749</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2074892351864576</v>
+        <v>0.207803287002998</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3244177022509933</v>
+        <v>0.3213597476255948</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>202</v>
@@ -1902,19 +1902,19 @@
         <v>126002</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>109195</v>
+        <v>111121</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>141756</v>
+        <v>146674</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3018593642334452</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2615952598240504</v>
+        <v>0.2662112635040563</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3396020271188385</v>
+        <v>0.3513843811492028</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>290</v>
@@ -1923,19 +1923,19 @@
         <v>220835</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>195971</v>
+        <v>196618</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>249544</v>
+        <v>249051</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.2841885021740161</v>
+        <v>0.284188502174016</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2521913005692039</v>
+        <v>0.2530238924893295</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3211328241438285</v>
+        <v>0.3204984604664077</v>
       </c>
     </row>
     <row r="21">
@@ -1952,19 +1952,19 @@
         <v>25276</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>16632</v>
+        <v>15864</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>38999</v>
+        <v>38526</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.07027862090533436</v>
+        <v>0.07027862090533434</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.04624418414000882</v>
+        <v>0.04410908581107647</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1084341210710418</v>
+        <v>0.1071200768624614</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>73</v>
@@ -1973,19 +1973,19 @@
         <v>46860</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>36485</v>
+        <v>36052</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>61173</v>
+        <v>59638</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.112260912007071</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.08740619523701854</v>
+        <v>0.08636918951679814</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1465497998142144</v>
+        <v>0.1428725989517588</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>97</v>
@@ -1994,19 +1994,19 @@
         <v>72136</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>58899</v>
+        <v>56779</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>91215</v>
+        <v>89328</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.09283011017131604</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.07579608515788559</v>
+        <v>0.07306776939621873</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1173829308278036</v>
+        <v>0.1149540836739949</v>
       </c>
     </row>
     <row r="22">
@@ -2023,19 +2023,19 @@
         <v>3820</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>11968</v>
+        <v>12407</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.01062232489792109</v>
+        <v>0.01062232489792108</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.002092145353587607</v>
+        <v>0.002096782346447491</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.03327645947436283</v>
+        <v>0.03449702122023198</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>15</v>
@@ -2044,19 +2044,19 @@
         <v>9276</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>5289</v>
+        <v>5332</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>15437</v>
+        <v>16563</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.02222281280687149</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01267151147267229</v>
+        <v>0.01277476667262796</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.03698319858550192</v>
+        <v>0.03968052887744323</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>18</v>
@@ -2065,19 +2065,19 @@
         <v>13097</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>7953</v>
+        <v>7564</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>22269</v>
+        <v>22773</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01685372084353264</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01023445901726343</v>
+        <v>0.009734359234748259</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02865799649923186</v>
+        <v>0.02930630293753315</v>
       </c>
     </row>
     <row r="23">
@@ -2169,19 +2169,19 @@
         <v>43068</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>32257</v>
+        <v>32171</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>56284</v>
+        <v>55195</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2100210548571051</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1573024096659834</v>
+        <v>0.1568858665127321</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2744724424470575</v>
+        <v>0.2691635519535481</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>46</v>
@@ -2190,19 +2190,19 @@
         <v>25470</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>19013</v>
+        <v>19201</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>35643</v>
+        <v>34961</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1122923193496685</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.08382333714059829</v>
+        <v>0.08465044894025868</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1571418559319771</v>
+        <v>0.1541336029334867</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>92</v>
@@ -2211,19 +2211,19 @@
         <v>68538</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>53533</v>
+        <v>54230</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>83379</v>
+        <v>83351</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.158694714184886</v>
+        <v>0.1586947141848859</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1239519629130333</v>
+        <v>0.1255644040346898</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1930574652969681</v>
+        <v>0.1929920874304355</v>
       </c>
     </row>
     <row r="25">
@@ -2240,19 +2240,19 @@
         <v>101373</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>87624</v>
+        <v>87680</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>113150</v>
+        <v>114767</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.4943527973716432</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.42730508069984</v>
+        <v>0.4275751747881134</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.5517820636803565</v>
+        <v>0.5596650154164413</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>236</v>
@@ -2261,19 +2261,19 @@
         <v>111925</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>101321</v>
+        <v>100790</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>122826</v>
+        <v>122307</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.4934482248825993</v>
+        <v>0.4934482248825991</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.4466942644392148</v>
+        <v>0.444356719148242</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.5415072103648616</v>
+        <v>0.5392186614945035</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>376</v>
@@ -2282,19 +2282,19 @@
         <v>213299</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>195146</v>
+        <v>198763</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>229043</v>
+        <v>233977</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.4938777232238573</v>
+        <v>0.4938777232238574</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.4518438894809073</v>
+        <v>0.4602193454048298</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.5303298523931889</v>
+        <v>0.5417552335717317</v>
       </c>
     </row>
     <row r="26">
@@ -2311,19 +2311,19 @@
         <v>59102</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>49402</v>
+        <v>48364</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>70764</v>
+        <v>70225</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.2882127841953215</v>
+        <v>0.2882127841953214</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2409136499748915</v>
+        <v>0.2358470335512647</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3450832579490179</v>
+        <v>0.3424534906914165</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>201</v>
@@ -2332,19 +2332,19 @@
         <v>86047</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>75703</v>
+        <v>76225</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>96144</v>
+        <v>97247</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.3793581321740453</v>
+        <v>0.3793581321740452</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3337545361048372</v>
+        <v>0.3360569526233462</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.4238714022615018</v>
+        <v>0.4287349906467854</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>291</v>
@@ -2353,19 +2353,19 @@
         <v>145149</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>129706</v>
+        <v>129217</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>160186</v>
+        <v>160049</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.3360815830368655</v>
+        <v>0.3360815830368656</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.3003248534651172</v>
+        <v>0.2991910619730763</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3708981871902359</v>
+        <v>0.3705811688100703</v>
       </c>
     </row>
     <row r="27">
@@ -2385,16 +2385,16 @@
         <v>0</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>5431</v>
+        <v>5248</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.007413363575930248</v>
+        <v>0.007413363575930247</v>
       </c>
       <c r="H27" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.02648534400844473</v>
+        <v>0.02559204577337849</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>8</v>
@@ -2403,19 +2403,19 @@
         <v>3380</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>1687</v>
+        <v>1620</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>6740</v>
+        <v>6529</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.01490132359368697</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.00743880723362431</v>
+        <v>0.007141439175770697</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.02971499732379834</v>
+        <v>0.02878599079288486</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>10</v>
@@ -2424,19 +2424,19 @@
         <v>4900</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>2568</v>
+        <v>2634</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>9512</v>
+        <v>9382</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.01134597955439129</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.005944938002301548</v>
+        <v>0.006099883911850422</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.02202431287182812</v>
+        <v>0.02172411781029902</v>
       </c>
     </row>
     <row r="28">
@@ -2528,19 +2528,19 @@
         <v>152360</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>137853</v>
+        <v>136617</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>167650</v>
+        <v>166732</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.5628210682593051</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.5092319588647847</v>
+        <v>0.5046666045266255</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.6193026983665038</v>
+        <v>0.6159138108954458</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>218</v>
@@ -2549,19 +2549,19 @@
         <v>147563</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>135000</v>
+        <v>135527</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>159930</v>
+        <v>159320</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.5594814014449127</v>
+        <v>0.5594814014449123</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.5118480327497077</v>
+        <v>0.5138450429676834</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.6063708582373828</v>
+        <v>0.6040565112099603</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>409</v>
@@ -2570,19 +2570,19 @@
         <v>299923</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>281369</v>
+        <v>281205</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>320328</v>
+        <v>318673</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.5611729700020969</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.526457231127792</v>
+        <v>0.5261516305792092</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.599351545336171</v>
+        <v>0.5962557645340021</v>
       </c>
     </row>
     <row r="30">
@@ -2599,19 +2599,19 @@
         <v>68231</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>55594</v>
+        <v>55836</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>80683</v>
+        <v>81861</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2520476845485847</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2053646121808106</v>
+        <v>0.2062585038252915</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2980464259587833</v>
+        <v>0.3023965706621974</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>111</v>
@@ -2620,19 +2620,19 @@
         <v>58970</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>50089</v>
+        <v>48413</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>70959</v>
+        <v>69562</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.223583698818327</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1899113538165082</v>
+        <v>0.1835554515259855</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2690393173956234</v>
+        <v>0.2637430663319678</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>209</v>
@@ -2641,19 +2641,19 @@
         <v>127201</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>112379</v>
+        <v>111902</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>143691</v>
+        <v>144148</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2380009404024111</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2102675213978233</v>
+        <v>0.2093743677888023</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2688550083338434</v>
+        <v>0.2697093771906021</v>
       </c>
     </row>
     <row r="31">
@@ -2670,19 +2670,19 @@
         <v>34274</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>25558</v>
+        <v>26388</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>44488</v>
+        <v>44296</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.126607639320682</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.0944109812794383</v>
+        <v>0.09747899246418205</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.16434089561578</v>
+        <v>0.1636297011063421</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>103</v>
@@ -2691,19 +2691,19 @@
         <v>46041</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>38416</v>
+        <v>37853</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>55246</v>
+        <v>54623</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1745620309451509</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1456527762846236</v>
+        <v>0.1435167149397421</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2094631797401224</v>
+        <v>0.207102925792017</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>159</v>
@@ -2712,19 +2712,19 @@
         <v>80314</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>68714</v>
+        <v>68095</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>93183</v>
+        <v>93104</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1502727393603533</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1285677497835556</v>
+        <v>0.1274106199677662</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1743501663945259</v>
+        <v>0.174203801480127</v>
       </c>
     </row>
     <row r="32">
@@ -2741,19 +2741,19 @@
         <v>15843</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>10316</v>
+        <v>10615</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>22660</v>
+        <v>23200</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.0585236078714283</v>
+        <v>0.05852360787142829</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.0381066121266992</v>
+        <v>0.03921074324560406</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.08370755178203602</v>
+        <v>0.08570188635280375</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>28</v>
@@ -2762,19 +2762,19 @@
         <v>11176</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>7404</v>
+        <v>7141</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>15949</v>
+        <v>16212</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.04237286879160956</v>
+        <v>0.04237286879160954</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.02807381702807299</v>
+        <v>0.02707635095814717</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.06047137910954817</v>
+        <v>0.06146753067941366</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>54</v>
@@ -2783,19 +2783,19 @@
         <v>27019</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>20111</v>
+        <v>20043</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>35363</v>
+        <v>34629</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.0505533502351388</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.03762888430059503</v>
+        <v>0.0375014000316285</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.066165577435566</v>
+        <v>0.06479299136227991</v>
       </c>
     </row>
     <row r="33">
@@ -2887,19 +2887,19 @@
         <v>349325</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>318873</v>
+        <v>320350</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>384078</v>
+        <v>380597</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>0.4853848406154477</v>
+        <v>0.4853848406154476</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.443071901710262</v>
+        <v>0.4451245653947385</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.5336743039460732</v>
+        <v>0.5288367159841098</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>403</v>
@@ -2908,19 +2908,19 @@
         <v>330858</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>305294</v>
+        <v>302993</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>360038</v>
+        <v>354660</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>0.4289331937671077</v>
+        <v>0.4289331937671076</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.3957919076741499</v>
+        <v>0.3928085297614202</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.4667630364247922</v>
+        <v>0.4597907422969468</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>686</v>
@@ -2929,19 +2929,19 @@
         <v>680184</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>642151</v>
+        <v>642297</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>720719</v>
+        <v>725151</v>
       </c>
       <c r="U34" s="6" t="n">
-        <v>0.4561809955188458</v>
+        <v>0.4561809955188459</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.4306737317215499</v>
+        <v>0.4307717230118167</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.4833667717664251</v>
+        <v>0.4863393819933559</v>
       </c>
     </row>
     <row r="35">
@@ -2958,19 +2958,19 @@
         <v>275903</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>244414</v>
+        <v>247276</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>305841</v>
+        <v>304221</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.3833650145353878</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.3396111133961081</v>
+        <v>0.3435884056572868</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.4249644359804025</v>
+        <v>0.4227129942777491</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>420</v>
@@ -2979,19 +2979,19 @@
         <v>327797</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>301313</v>
+        <v>303749</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>355168</v>
+        <v>355963</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.4249645779917054</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.3906303813608804</v>
+        <v>0.3937885834843389</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.4604497156112912</v>
+        <v>0.4614805240588536</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>652</v>
@@ -3000,19 +3000,19 @@
         <v>603700</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>566079</v>
+        <v>559948</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>644435</v>
+        <v>639904</v>
       </c>
       <c r="U35" s="6" t="n">
-        <v>0.4048855064092272</v>
+        <v>0.4048855064092273</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.3796538406998494</v>
+        <v>0.375542145541088</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.4322051998003388</v>
+        <v>0.4291663604635596</v>
       </c>
     </row>
     <row r="36">
@@ -3029,19 +3029,19 @@
         <v>76944</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>59838</v>
+        <v>59762</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>96779</v>
+        <v>96194</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.1069136262530237</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.0831448739419456</v>
+        <v>0.08303871944432153</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.1344738526570297</v>
+        <v>0.1336606787325001</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>111</v>
@@ -3050,19 +3050,19 @@
         <v>94201</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>77625</v>
+        <v>77623</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>114370</v>
+        <v>112910</v>
       </c>
       <c r="N36" s="6" t="n">
-        <v>0.122124614421647</v>
+        <v>0.1221246144216469</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1006351645404979</v>
+        <v>0.1006328970269879</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.1482725604043921</v>
+        <v>0.1463798937226483</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>182</v>
@@ -3071,19 +3071,19 @@
         <v>171145</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>149661</v>
+        <v>147513</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>200128</v>
+        <v>201342</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.1147826498695735</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1003736810881967</v>
+        <v>0.09893272764310318</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.1342201886794863</v>
+        <v>0.1350345674286837</v>
       </c>
     </row>
     <row r="37">
@@ -3100,19 +3100,19 @@
         <v>17515</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>9170</v>
+        <v>9734</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>32017</v>
+        <v>30997</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.02433651859614087</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.01274206071852559</v>
+        <v>0.01352599470323338</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.04448720600241036</v>
+        <v>0.04307061120573458</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>25</v>
@@ -3121,19 +3121,19 @@
         <v>18495</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>12180</v>
+        <v>12234</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>26692</v>
+        <v>26967</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.02397761381953998</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.01579012639951418</v>
+        <v>0.01586080904686553</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.03460369353201497</v>
+        <v>0.03496120891988536</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>38</v>
@@ -3142,19 +3142,19 @@
         <v>36010</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>25389</v>
+        <v>25214</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>51035</v>
+        <v>49935</v>
       </c>
       <c r="U37" s="6" t="n">
-        <v>0.02415084820235339</v>
+        <v>0.0241508482023534</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.01702739304893475</v>
+        <v>0.01691044782604641</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.03422796267295648</v>
+        <v>0.03349036732791693</v>
       </c>
     </row>
     <row r="38">
@@ -3246,19 +3246,19 @@
         <v>363015</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>332195</v>
+        <v>334973</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>394273</v>
+        <v>394136</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.4555048667605714</v>
+        <v>0.4555048667605715</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.4168332150815251</v>
+        <v>0.4203180900349837</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.4947280142558028</v>
+        <v>0.4945555292693586</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>359</v>
@@ -3267,19 +3267,19 @@
         <v>317116</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>291750</v>
+        <v>290488</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>343562</v>
+        <v>342138</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.3817719988907027</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.351233600229949</v>
+        <v>0.3497151395875133</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.4136091789242346</v>
+        <v>0.4118957579648202</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>663</v>
@@ -3288,19 +3288,19 @@
         <v>680131</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>640386</v>
+        <v>640580</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>715922</v>
+        <v>722080</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.4178752431800483</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.393455875504705</v>
+        <v>0.3935748111603304</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.4398653107741738</v>
+        <v>0.4436489634851776</v>
       </c>
     </row>
     <row r="40">
@@ -3317,19 +3317,19 @@
         <v>287194</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>260216</v>
+        <v>257538</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>313793</v>
+        <v>313139</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.3603660562950851</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.3265149031824545</v>
+        <v>0.3231544703702282</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.393742182807261</v>
+        <v>0.3929211394421347</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>410</v>
@@ -3338,19 +3338,19 @@
         <v>307741</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>283077</v>
+        <v>284445</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>333075</v>
+        <v>335057</v>
       </c>
       <c r="N40" s="6" t="n">
-        <v>0.3704853789411634</v>
+        <v>0.3704853789411635</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.3407927069919878</v>
+        <v>0.3424391708033862</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.4009842843399036</v>
+        <v>0.4033709596026253</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>707</v>
@@ -3359,19 +3359,19 @@
         <v>594935</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>558732</v>
+        <v>553497</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>632212</v>
+        <v>628683</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.3655304600821973</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.3432870692037681</v>
+        <v>0.340070788746402</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.3884337806784885</v>
+        <v>0.3862655324868159</v>
       </c>
     </row>
     <row r="41">
@@ -3388,19 +3388,19 @@
         <v>123715</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>105080</v>
+        <v>105534</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>142816</v>
+        <v>145108</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.1552349725603769</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.1318524963125896</v>
+        <v>0.1324225079934609</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.1792036070774634</v>
+        <v>0.1820797464490599</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>261</v>
@@ -3409,19 +3409,19 @@
         <v>183847</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>162626</v>
+        <v>162574</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>204624</v>
+        <v>204405</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.2213309506078392</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.1957830791018691</v>
+        <v>0.1957201758892835</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.2463443191823967</v>
+        <v>0.2460801879555328</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>397</v>
@@ -3430,19 +3430,19 @@
         <v>307562</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>280655</v>
+        <v>278726</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>336753</v>
+        <v>336021</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.1889671037790097</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.1724358764494821</v>
+        <v>0.1712501353363773</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.2069027574150118</v>
+        <v>0.2064527650067758</v>
       </c>
     </row>
     <row r="42">
@@ -3459,19 +3459,19 @@
         <v>23027</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>15716</v>
+        <v>15559</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>35257</v>
+        <v>35251</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.02889410438396672</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.01971989161420857</v>
+        <v>0.01952372683921781</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.0442393027526632</v>
+        <v>0.04423178806008759</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>31</v>
@@ -3480,19 +3480,19 @@
         <v>21939</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>15263</v>
+        <v>15305</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>30839</v>
+        <v>30604</v>
       </c>
       <c r="N42" s="6" t="n">
-        <v>0.02641167156029471</v>
+        <v>0.02641167156029472</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.01837526554017548</v>
+        <v>0.01842498925545522</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.03712654819053033</v>
+        <v>0.03684405245682718</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>55</v>
@@ -3501,19 +3501,19 @@
         <v>44966</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>34991</v>
+        <v>34246</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>59445</v>
+        <v>60512</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.02762719295874482</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.02149838955237075</v>
+        <v>0.02104080758771567</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.03652335848491606</v>
+        <v>0.03717909627181406</v>
       </c>
     </row>
     <row r="43">
@@ -3605,19 +3605,19 @@
         <v>1722901</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>1659059</v>
+        <v>1657463</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>1790580</v>
+        <v>1787546</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.4898015842938493</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.4716518758895011</v>
+        <v>0.4711983487104291</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.509042042408299</v>
+        <v>0.5081793174873076</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>2007</v>
@@ -3626,19 +3626,19 @@
         <v>1576356</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>1520018</v>
+        <v>1522864</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>1634795</v>
+        <v>1632707</v>
       </c>
       <c r="N44" s="6" t="n">
-        <v>0.4233028854259462</v>
+        <v>0.4233028854259463</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.408174245873583</v>
+        <v>0.4089385285418038</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.4389955214757447</v>
+        <v>0.4384348143400041</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>3478</v>
@@ -3647,19 +3647,19 @@
         <v>3299257</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>3217152</v>
+        <v>3208278</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>3392503</v>
+        <v>3382539</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.455604570909813</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.4442664367377671</v>
+        <v>0.4430409025471707</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.4684811582551504</v>
+        <v>0.4671052287107876</v>
       </c>
     </row>
     <row r="45">
@@ -3676,19 +3676,19 @@
         <v>1288878</v>
       </c>
       <c r="E45" s="5" t="n">
-        <v>1230161</v>
+        <v>1223144</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>1354209</v>
+        <v>1351898</v>
       </c>
       <c r="G45" s="6" t="n">
         <v>0.3664137578432983</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.3497209896667388</v>
+        <v>0.347726319771278</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.3849865000339552</v>
+        <v>0.3843296191900753</v>
       </c>
       <c r="J45" s="5" t="n">
         <v>2217</v>
@@ -3697,19 +3697,19 @@
         <v>1473485</v>
       </c>
       <c r="L45" s="5" t="n">
-        <v>1418108</v>
+        <v>1419448</v>
       </c>
       <c r="M45" s="5" t="n">
-        <v>1526541</v>
+        <v>1526370</v>
       </c>
       <c r="N45" s="6" t="n">
-        <v>0.3956785810113224</v>
+        <v>0.3956785810113225</v>
       </c>
       <c r="O45" s="6" t="n">
-        <v>0.3808080752067071</v>
+        <v>0.3811680030627123</v>
       </c>
       <c r="P45" s="6" t="n">
-        <v>0.409925853168816</v>
+        <v>0.4098799484086413</v>
       </c>
       <c r="Q45" s="5" t="n">
         <v>3526</v>
@@ -3718,19 +3718,19 @@
         <v>2762363</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>2677137</v>
+        <v>2680510</v>
       </c>
       <c r="T45" s="5" t="n">
-        <v>2842462</v>
+        <v>2847477</v>
       </c>
       <c r="U45" s="6" t="n">
         <v>0.381463218458255</v>
       </c>
       <c r="V45" s="6" t="n">
-        <v>0.3696940421524377</v>
+        <v>0.3701598590030635</v>
       </c>
       <c r="W45" s="6" t="n">
-        <v>0.3925243115471798</v>
+        <v>0.3932168243327557</v>
       </c>
     </row>
     <row r="46">
@@ -3747,19 +3747,19 @@
         <v>427608</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>391757</v>
+        <v>390962</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>471499</v>
+        <v>466057</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.1215642950599254</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.1113722451099102</v>
+        <v>0.1111462091205935</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.1340420035695598</v>
+        <v>0.1324946872778867</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>979</v>
@@ -3768,19 +3768,19 @@
         <v>590228</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>554556</v>
+        <v>551093</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>628831</v>
+        <v>628209</v>
       </c>
       <c r="N46" s="6" t="n">
-        <v>0.1584954159201379</v>
+        <v>0.158495415920138</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.14891637589799</v>
+        <v>0.1479864011040385</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.1688615475368588</v>
+        <v>0.1686945757477165</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>1472</v>
@@ -3789,19 +3789,19 @@
         <v>1017836</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>968769</v>
+        <v>961601</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>1073317</v>
+        <v>1074968</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.1405561558909609</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.1337802288780847</v>
+        <v>0.132790464712072</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.148217646294324</v>
+        <v>0.1484455985083964</v>
       </c>
     </row>
     <row r="47">
@@ -3818,19 +3818,19 @@
         <v>78161</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>62023</v>
+        <v>61564</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>97687</v>
+        <v>99593</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.02222036280292707</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.01763237119354981</v>
+        <v>0.01750185178703677</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.02777133963480899</v>
+        <v>0.02831321489880912</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>141</v>
@@ -3839,19 +3839,19 @@
         <v>83875</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>71771</v>
+        <v>70602</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>100122</v>
+        <v>99600</v>
       </c>
       <c r="N47" s="6" t="n">
-        <v>0.02252311764259336</v>
+        <v>0.02252311764259337</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.01927284560774403</v>
+        <v>0.01895883311388915</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.02688596785029971</v>
+        <v>0.02674576183650459</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>229</v>
@@ -3860,19 +3860,19 @@
         <v>162036</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>139448</v>
+        <v>139084</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>184340</v>
+        <v>186828</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.0223760547409711</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.01925676525193176</v>
+        <v>0.01920654007281355</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.02545612512947896</v>
+        <v>0.02579962363419348</v>
       </c>
     </row>
     <row r="48">
